--- a/projectData.xlsx
+++ b/projectData.xlsx
@@ -1,41 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavyashree\Desktop\SDET_30_WebdriverIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DA477-3F62-4597-9A6A-02AEAA7C2368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C4B15-4CF0-42F8-8B16-2D9AE7D2AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4077FD12-F107-41E9-BD6E-3E128ED23138}"/>
+    <workbookView xWindow="5316" yWindow="2304" windowWidth="16920" windowHeight="8664" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="OrgName" sheetId="2" r:id="rId2"/>
+    <sheet name="Opportunities" sheetId="4" r:id="rId3"/>
+    <sheet name="Contact" sheetId="5" r:id="rId4"/>
+    <sheet name="Product" sheetId="3" r:id="rId5"/>
+    <sheet name="Campaign" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+  <si>
+    <t>tc_id</t>
+  </si>
+  <si>
+    <t>tc_name</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>tc_01</t>
+  </si>
+  <si>
+    <t>createOrg</t>
+  </si>
+  <si>
+    <t>KVB</t>
+  </si>
+  <si>
+    <t>tc_02</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
   <si>
     <t>url</t>
   </si>
@@ -56,13 +70,55 @@
   </si>
   <si>
     <t>pradeep</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>createProduct</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>createOpporWithOrgName</t>
+  </si>
+  <si>
+    <t>OpportunityName</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>createContact</t>
+  </si>
+  <si>
+    <t>Dhruthi</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>createCampaign</t>
+  </si>
+  <si>
+    <t>CampaignName</t>
+  </si>
+  <si>
+    <t>Vivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,23 +127,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -96,22 +170,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -158,20 +253,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,31 +294,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -251,23 +329,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,222 +340,451 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D41C6EB-51BA-486B-A54B-388E89229CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="1" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FF16FF-D6BC-47E2-8A27-5E5C1523C369}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CBAED6-DAC5-4199-B0BB-4A227B1C45EE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CFFA4355-2953-49D2-BDB9-5604D0F69B9A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A2646-11C2-48C6-A898-59E767D15762}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C211A458-6F87-4F04-B6EA-FAC6D8A088AA}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CBCEB1-BB57-46E9-89DC-61ABAB584E1A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>